--- a/Document/퓨우웅 게임 디자인.xlsx
+++ b/Document/퓨우웅 게임 디자인.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai77\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Ppyungung\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>게임 디자인 요소들을 각각의 시트별로 정리 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,56 +91,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저보다 1.5배 빠른 속도를 지닌 몬스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 속도의 0.8배 느린 속도를 지닌 몬스터
-체력은 10방을 맞아야 죽는다. (총알 속도에 따라 밸런싱)
+    <t>체력 충전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 최대량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치 시 대시 게이지 회복량 증가</t>
+  </si>
+  <si>
+    <t>대시 게이지 소모량 감소</t>
+  </si>
+  <si>
+    <t>드랍 코인 증가</t>
+  </si>
+  <si>
+    <t>보호막 생성</t>
+  </si>
+  <si>
+    <t>총알 속도 증가</t>
+  </si>
+  <si>
+    <t>이동 속도 증가</t>
+  </si>
+  <si>
+    <t>몬스터 이동 속도 감소</t>
+  </si>
+  <si>
+    <t>버프 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저보다 1.3배 빠른 속도를 지닌 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 속도와 동일한 느린 몬스터
+체력은 3방을 맞아야 죽는다. (총알 속도에 따라 밸런싱)
 기본형이 유저에게 접근할 수 있도록
 대신 총을 맞아주는 탱커형 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 속도와 동일한 속도를 지닌 몬스터
+    <t>유저 속도보다 1.1배 빠른 속도를 지닌 몬스터
 죽을 때 자폭하며 사방으로 총알을 뿌린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 충전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 최대량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 처치 시 대시 게이지 회복량 증가</t>
-  </si>
-  <si>
-    <t>대시 게이지 소모량 감소</t>
-  </si>
-  <si>
-    <t>드랍 코인 증가</t>
-  </si>
-  <si>
-    <t>보호막 생성</t>
-  </si>
-  <si>
-    <t>총알 속도 증가</t>
-  </si>
-  <si>
-    <t>이동 속도 증가</t>
-  </si>
-  <si>
-    <t>몬스터 이동 속도 감소</t>
-  </si>
-  <si>
-    <t>버프 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기리스트</t>
+    <t>화염방사기</t>
+  </si>
+  <si>
+    <t>레이저</t>
+  </si>
+  <si>
+    <t>샷건</t>
+  </si>
+  <si>
+    <t>점액질 분열탄</t>
+  </si>
+  <si>
+    <t>화염병 발사기</t>
+  </si>
+  <si>
+    <t>참고 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 사정거리를 가집니다.
+공격 딜레이가 깁니다.
+일직선으로 뻗어나가며,
+해당 라인의 모든 적들이 피격 됩니다.
+데미지값 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리는 짧지만 넓은 범위를 공격합니다.
+공격 딜레이가 없습니다.
+총구에서 멀어질수록 피격 범위가 넓어집니다.
+범위에 닿는 모든 적이 피격됩니다.
+데미지값 : 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일직선으로 로켓이 발사 됩니다.
+공격 딜레이가 깁니다.
+로켓에 적이 맞으면 폭발하며,
+주위 적도 함께 피격됩니다.
+데미지값 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코만도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일직선으로 로켓이 발사 됩니다.
+공격 딜레이가 깁니다. (코만도보다 길다)
+로켓에 적이 맞으면 폭발하며, (코만도 보다 넓은 폭파 범위를 가진다.)
+주위 적도 함께 피격됩니다.
+데미지값 : 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 중간, 총알 5개가 나팔형으로 퍼져 나갑니다.
+공격 딜레이는 중간입니다.
+공격은 관통되지 않습니다.
+데미지값 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌격소총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리가 깁니다.
+공격 딜레이가 매우 짧습니다.
+공격은 관통되지 않습니다.
+데미지값 : 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저격총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴 사정거리를 가집니다.
+공격 딜레이는 중간입니다.
+일직선으로 뻗어나가며,
+공격은 관통되지 않습니다.
+데미지값 : 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팅어미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">가장 가까운 적에게 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유도형 로켓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 발사 됩니다.
+공격 딜레이는 중간입니다.
+로켓에 적이 맞으면 폭발하며,
+주위 적도 함께 피격됩니다.
+데미지값 : 1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 중간, 점액질탄을 발사합니다.
+공격 딜레이는 중간입니다.
+적이 맞으면 폭발하며,
+주위 적은 데미지를 받지는 않지만, 느려집니다.
+데미지값 : 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 중간, 화염병을 발사합니다.
+공격 딜레이는 중간입니다.
+적이 맞으면 폭발하며, 맞지 않을경우에도 사정거리까지 나아가서 화염병이 터집니다.
+폭발 주위의 적은 데미지를 받습니다.
+화염병이 터지면 해당 구역에 3초간 화염이 일어나며, 해당 화염에 닿인 적들은 초당 1의 데미지를 받습니다.
+데미지값 : 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +353,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,6 +454,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -308,6 +479,391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>457201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1402081</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>731127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3840481" y="11879581"/>
+          <a:ext cx="1059180" cy="273926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1592581</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>658644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672841" y="3108960"/>
+          <a:ext cx="1417320" cy="399564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>600185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3916680" y="4030981"/>
+          <a:ext cx="883920" cy="371584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1225519</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>731520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="4983480"/>
+          <a:ext cx="791179" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>773342</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="5916842"/>
+          <a:ext cx="1181100" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1508598</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>579087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3710940" y="6972300"/>
+          <a:ext cx="1295238" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>350521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1395985</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>556261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947160" y="7962901"/>
+          <a:ext cx="946405" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373381</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>259081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1463041</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>586691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3870961" y="8823961"/>
+          <a:ext cx="1089660" cy="327610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>297181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1478279</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>662941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3741420" y="9814561"/>
+          <a:ext cx="1234439" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1397191</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>670560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="10759440"/>
+          <a:ext cx="970471" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,7 +1157,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -609,7 +1165,7 @@
     <col min="1" max="1" width="3.69921875" customWidth="1"/>
     <col min="2" max="2" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
@@ -637,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -650,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -663,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -733,17 +1289,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.3984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="3" width="22.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.4">
@@ -753,59 +1311,159 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="98.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>